--- a/histórico/1 Balas_historico.xlsx
+++ b/histórico/1 Balas_historico.xlsx
@@ -498,19 +498,19 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>18.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>77.42</v>
+        <v>99.43000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -526,19 +526,19 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>7.38</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>4.76</v>
+        <v>0.37</v>
       </c>
       <c r="H3" t="n">
-        <v>71.88</v>
+        <v>99.53</v>
       </c>
       <c r="I3" t="n">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.81</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -554,19 +554,19 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>9.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>12.49</v>
+        <v>4.44</v>
       </c>
       <c r="H4" t="n">
-        <v>62.89</v>
+        <v>95.02</v>
       </c>
       <c r="I4" t="n">
-        <v>4.24</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.35</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="5">
@@ -582,19 +582,19 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>6.67</v>
+        <v>3.18</v>
       </c>
       <c r="G5" t="n">
-        <v>5.31</v>
+        <v>3.85</v>
       </c>
       <c r="H5" t="n">
-        <v>65.39</v>
+        <v>89.27</v>
       </c>
       <c r="I5" t="n">
-        <v>10.72</v>
+        <v>0.55</v>
       </c>
       <c r="J5" t="n">
-        <v>11.92</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="6">
@@ -610,19 +610,19 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>7.92</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>6.32</v>
+        <v>0.25</v>
       </c>
       <c r="H6" t="n">
-        <v>34.48</v>
+        <v>98.73999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>32.25</v>
+        <v>0.17</v>
       </c>
       <c r="J6" t="n">
-        <v>19.03</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="7">
@@ -638,19 +638,19 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>9.640000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="G7" t="n">
-        <v>8.960000000000001</v>
+        <v>1.81</v>
       </c>
       <c r="H7" t="n">
-        <v>16.31</v>
+        <v>65.95</v>
       </c>
       <c r="I7" t="n">
-        <v>9.949999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="J7" t="n">
-        <v>55.14</v>
+        <v>29.98</v>
       </c>
     </row>
     <row r="8">
@@ -666,19 +666,19 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>9.449999999999999</v>
+        <v>3.78</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>1.16</v>
       </c>
       <c r="H8" t="n">
-        <v>45</v>
+        <v>81.45</v>
       </c>
       <c r="I8" t="n">
-        <v>27.97</v>
+        <v>2.47</v>
       </c>
       <c r="J8" t="n">
-        <v>14.48</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="9">
@@ -694,19 +694,19 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.64</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>80.08</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>3.63</v>
+        <v>0.01</v>
       </c>
       <c r="J9" t="n">
-        <v>7.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
@@ -722,19 +722,19 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>13.52</v>
+        <v>3.28</v>
       </c>
       <c r="G10" t="n">
-        <v>3.26</v>
+        <v>1.47</v>
       </c>
       <c r="H10" t="n">
-        <v>54.99</v>
+        <v>93.63</v>
       </c>
       <c r="I10" t="n">
-        <v>22.19</v>
+        <v>0.86</v>
       </c>
       <c r="J10" t="n">
-        <v>6.03</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="11">
@@ -750,19 +750,19 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>4.61</v>
+        <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>3.38</v>
+        <v>0.03</v>
       </c>
       <c r="H11" t="n">
-        <v>58.91</v>
+        <v>99</v>
       </c>
       <c r="I11" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12">
@@ -778,19 +778,19 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>6.78</v>
+        <v>0.05</v>
       </c>
       <c r="G12" t="n">
-        <v>6.54</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
-        <v>64.66</v>
+        <v>98.23999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>7.56</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>14.45</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="13">
@@ -806,19 +806,19 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>1.06</v>
+        <v>0.01</v>
       </c>
       <c r="G13" t="n">
-        <v>1.32</v>
+        <v>0.02</v>
       </c>
       <c r="H13" t="n">
-        <v>77.36</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>8.09</v>
+        <v>0.06</v>
       </c>
       <c r="J13" t="n">
-        <v>12.17</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14">
@@ -834,19 +834,19 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>98.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -862,19 +862,19 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.87</v>
+        <v>0.01</v>
       </c>
       <c r="H15" t="n">
-        <v>89.95</v>
+        <v>99.84</v>
       </c>
       <c r="I15" t="n">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>5.78</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="16">
@@ -890,19 +890,19 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.44</v>
+        <v>0.01</v>
       </c>
       <c r="H16" t="n">
-        <v>91.64</v>
+        <v>99.92</v>
       </c>
       <c r="I16" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.78</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="17">
@@ -918,19 +918,19 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.78</v>
+        <v>0.14</v>
       </c>
       <c r="H17" t="n">
-        <v>86.59</v>
+        <v>99.86</v>
       </c>
       <c r="I17" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>8.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -946,19 +946,19 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>7.14</v>
+        <v>1.72</v>
       </c>
       <c r="G18" t="n">
-        <v>21.2</v>
+        <v>35.79</v>
       </c>
       <c r="H18" t="n">
-        <v>61.86</v>
+        <v>60.89</v>
       </c>
       <c r="I18" t="n">
-        <v>2.94</v>
+        <v>0.05</v>
       </c>
       <c r="J18" t="n">
-        <v>6.85</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="19">
@@ -974,19 +974,19 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>3.09</v>
+        <v>0.01</v>
       </c>
       <c r="G19" t="n">
-        <v>10.62</v>
+        <v>3.42</v>
       </c>
       <c r="H19" t="n">
-        <v>28.91</v>
+        <v>95.48999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>7.16</v>
+        <v>0.01</v>
       </c>
       <c r="J19" t="n">
-        <v>50.22</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="20">
@@ -1002,19 +1002,19 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>15.82</v>
+        <v>0.09</v>
       </c>
       <c r="G20" t="n">
-        <v>6.86</v>
+        <v>1.38</v>
       </c>
       <c r="H20" t="n">
-        <v>47.1</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>16.61</v>
+        <v>0.04</v>
       </c>
       <c r="J20" t="n">
-        <v>13.61</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="21">
@@ -1030,19 +1030,19 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.13</v>
+        <v>0.15</v>
       </c>
       <c r="H21" t="n">
-        <v>86.2</v>
+        <v>99.58</v>
       </c>
       <c r="I21" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>8.65</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="22">
@@ -1058,19 +1058,19 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>4.52</v>
+        <v>0.01</v>
       </c>
       <c r="G22" t="n">
-        <v>14.87</v>
+        <v>6.36</v>
       </c>
       <c r="H22" t="n">
-        <v>21.48</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>4.19</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>54.93</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="23">
@@ -1086,19 +1086,19 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.51</v>
+        <v>0.05</v>
       </c>
       <c r="H23" t="n">
-        <v>72.48999999999999</v>
+        <v>99.63</v>
       </c>
       <c r="I23" t="n">
-        <v>6.85</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>14.15</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="24">
@@ -1114,19 +1114,19 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>6.93</v>
+        <v>0.22</v>
       </c>
       <c r="G24" t="n">
-        <v>3.37</v>
+        <v>0.53</v>
       </c>
       <c r="H24" t="n">
-        <v>62.49</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>15.66</v>
+        <v>0.34</v>
       </c>
       <c r="J24" t="n">
-        <v>11.54</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="25">
@@ -1142,19 +1142,19 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>21.56</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>6.01</v>
+        <v>0.28</v>
       </c>
       <c r="H25" t="n">
-        <v>38.89</v>
+        <v>98.12</v>
       </c>
       <c r="I25" t="n">
-        <v>14.62</v>
+        <v>0.09</v>
       </c>
       <c r="J25" t="n">
-        <v>18.93</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="26">
@@ -1170,19 +1170,19 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>8.859999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G26" t="n">
-        <v>8.06</v>
+        <v>1.13</v>
       </c>
       <c r="H26" t="n">
-        <v>43.53</v>
+        <v>94.72</v>
       </c>
       <c r="I26" t="n">
-        <v>15.15</v>
+        <v>0.1</v>
       </c>
       <c r="J26" t="n">
-        <v>24.4</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="27">
@@ -1198,19 +1198,19 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.48</v>
+        <v>0.01</v>
       </c>
       <c r="H27" t="n">
-        <v>91.56999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="28">
@@ -1226,19 +1226,19 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>97.59</v>
+        <v>99.98</v>
       </c>
       <c r="I28" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.7</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="29">
@@ -1254,19 +1254,19 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>98.39</v>
+        <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1282,19 +1282,19 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.89</v>
+        <v>0.02</v>
       </c>
       <c r="H30" t="n">
-        <v>79.48</v>
+        <v>99.39</v>
       </c>
       <c r="I30" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.99</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="31">
@@ -1310,19 +1310,19 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>5.54</v>
+        <v>0.08</v>
       </c>
       <c r="G31" t="n">
-        <v>6.64</v>
+        <v>1.03</v>
       </c>
       <c r="H31" t="n">
-        <v>64.77</v>
+        <v>96.58</v>
       </c>
       <c r="I31" t="n">
-        <v>6.81</v>
+        <v>0.14</v>
       </c>
       <c r="J31" t="n">
-        <v>16.24</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="32">
@@ -1338,19 +1338,19 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.55</v>
+        <v>0.09</v>
       </c>
       <c r="H32" t="n">
-        <v>82.56999999999999</v>
+        <v>99.87</v>
       </c>
       <c r="I32" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.66</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="33">
@@ -1366,19 +1366,19 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>1.62</v>
+        <v>0.04</v>
       </c>
       <c r="G33" t="n">
-        <v>2.28</v>
+        <v>0.05</v>
       </c>
       <c r="H33" t="n">
-        <v>95.31</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="J33" t="n">
-        <v>0.59</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
